--- a/AAII_Financials/Yearly/UN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55978200</v>
+        <v>57573000</v>
       </c>
       <c r="E8" s="3">
-        <v>58979100</v>
+        <v>56467700</v>
       </c>
       <c r="F8" s="3">
-        <v>57878900</v>
+        <v>59494700</v>
       </c>
       <c r="G8" s="3">
-        <v>58492700</v>
+        <v>58384900</v>
       </c>
       <c r="H8" s="3">
-        <v>53182700</v>
+        <v>59004100</v>
       </c>
       <c r="I8" s="3">
-        <v>54677100</v>
+        <v>53647700</v>
       </c>
       <c r="J8" s="3">
+        <v>55155200</v>
+      </c>
+      <c r="K8" s="3">
         <v>56353800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54543400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28186800</v>
+        <v>32233400</v>
       </c>
       <c r="E9" s="3">
-        <v>29982000</v>
+        <v>60224600</v>
       </c>
       <c r="F9" s="3">
-        <v>29627300</v>
+        <v>64008200</v>
       </c>
       <c r="G9" s="3">
-        <v>30140100</v>
+        <v>29886400</v>
       </c>
       <c r="H9" s="3">
-        <v>31168900</v>
+        <v>30403600</v>
       </c>
       <c r="I9" s="3">
-        <v>31913400</v>
+        <v>31441400</v>
       </c>
       <c r="J9" s="3">
+        <v>32192400</v>
+      </c>
+      <c r="K9" s="3">
         <v>33711900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32784500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27791500</v>
+        <v>25339700</v>
       </c>
       <c r="E10" s="3">
-        <v>28997100</v>
+        <v>-3757000</v>
       </c>
       <c r="F10" s="3">
-        <v>28251500</v>
+        <v>-4513500</v>
       </c>
       <c r="G10" s="3">
-        <v>28352600</v>
+        <v>28498500</v>
       </c>
       <c r="H10" s="3">
-        <v>22013800</v>
+        <v>28600400</v>
       </c>
       <c r="I10" s="3">
-        <v>22763700</v>
+        <v>22206300</v>
       </c>
       <c r="J10" s="3">
+        <v>22962800</v>
+      </c>
+      <c r="K10" s="3">
         <v>22641900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21758900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>988200</v>
+        <v>930400</v>
       </c>
       <c r="E12" s="3">
-        <v>988200</v>
+        <v>996800</v>
       </c>
       <c r="F12" s="3">
-        <v>1073800</v>
+        <v>996800</v>
       </c>
       <c r="G12" s="3">
-        <v>1103500</v>
+        <v>1083200</v>
       </c>
       <c r="H12" s="3">
-        <v>1048600</v>
+        <v>1113100</v>
       </c>
       <c r="I12" s="3">
-        <v>1141900</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+        <v>1057800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1151900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +889,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3656300</v>
+        <v>1333600</v>
       </c>
       <c r="E14" s="3">
-        <v>1015700</v>
+        <v>-3688300</v>
       </c>
       <c r="F14" s="3">
-        <v>-269000</v>
+        <v>1024500</v>
       </c>
       <c r="G14" s="3">
-        <v>-384300</v>
+        <v>-271400</v>
       </c>
       <c r="H14" s="3">
-        <v>1054100</v>
+        <v>-387700</v>
       </c>
       <c r="I14" s="3">
-        <v>550100</v>
+        <v>1063300</v>
       </c>
       <c r="J14" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-80200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-169000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +955,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41931500</v>
+        <v>47889300</v>
       </c>
       <c r="E17" s="3">
-        <v>49673500</v>
+        <v>42298100</v>
       </c>
       <c r="F17" s="3">
-        <v>49313400</v>
+        <v>49997100</v>
       </c>
       <c r="G17" s="3">
-        <v>50241200</v>
+        <v>49744500</v>
       </c>
       <c r="H17" s="3">
-        <v>44420700</v>
+        <v>50680500</v>
       </c>
       <c r="I17" s="3">
-        <v>46423400</v>
+        <v>44809100</v>
       </c>
       <c r="J17" s="3">
+        <v>46829300</v>
+      </c>
+      <c r="K17" s="3">
         <v>48693000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47007600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14046700</v>
+        <v>9683700</v>
       </c>
       <c r="E18" s="3">
-        <v>9305600</v>
+        <v>14169500</v>
       </c>
       <c r="F18" s="3">
-        <v>8565500</v>
+        <v>9497700</v>
       </c>
       <c r="G18" s="3">
-        <v>8251500</v>
+        <v>8640400</v>
       </c>
       <c r="H18" s="3">
-        <v>8762000</v>
+        <v>8323600</v>
       </c>
       <c r="I18" s="3">
-        <v>8253700</v>
+        <v>8838600</v>
       </c>
       <c r="J18" s="3">
+        <v>8325800</v>
+      </c>
+      <c r="K18" s="3">
         <v>7660700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7535900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>187800</v>
+        <v>342200</v>
       </c>
       <c r="E20" s="3">
-        <v>271200</v>
+        <v>330100</v>
       </c>
       <c r="F20" s="3">
-        <v>263500</v>
+        <v>269100</v>
       </c>
       <c r="G20" s="3">
-        <v>282200</v>
+        <v>261400</v>
       </c>
       <c r="H20" s="3">
-        <v>166900</v>
+        <v>280200</v>
       </c>
       <c r="I20" s="3">
-        <v>103200</v>
+        <v>163900</v>
       </c>
       <c r="J20" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K20" s="3">
         <v>658800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>836900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16155600</v>
+        <v>12206800</v>
       </c>
       <c r="E21" s="3">
-        <v>11268100</v>
+        <v>16937900</v>
       </c>
       <c r="F21" s="3">
-        <v>10439000</v>
+        <v>11994900</v>
       </c>
       <c r="G21" s="3">
-        <v>10040200</v>
+        <v>10512600</v>
       </c>
       <c r="H21" s="3">
-        <v>10503700</v>
+        <v>10111200</v>
       </c>
       <c r="I21" s="3">
-        <v>9622600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>10578200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9692000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9581500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>663200</v>
+        <v>845100</v>
       </c>
       <c r="E22" s="3">
-        <v>624800</v>
+        <v>809700</v>
       </c>
       <c r="F22" s="3">
-        <v>628100</v>
+        <v>766500</v>
       </c>
       <c r="G22" s="3">
-        <v>606100</v>
+        <v>629100</v>
       </c>
       <c r="H22" s="3">
-        <v>533600</v>
+        <v>607000</v>
       </c>
       <c r="I22" s="3">
-        <v>545700</v>
+        <v>533900</v>
       </c>
       <c r="J22" s="3">
+        <v>546000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1146300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1252500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13571300</v>
+        <v>9180900</v>
       </c>
       <c r="E23" s="3">
-        <v>8952000</v>
+        <v>13689900</v>
       </c>
       <c r="F23" s="3">
-        <v>8201000</v>
+        <v>9000400</v>
       </c>
       <c r="G23" s="3">
-        <v>7927600</v>
+        <v>8272700</v>
       </c>
       <c r="H23" s="3">
-        <v>8395300</v>
+        <v>7996900</v>
       </c>
       <c r="I23" s="3">
-        <v>7811200</v>
+        <v>8468700</v>
       </c>
       <c r="J23" s="3">
+        <v>7879500</v>
+      </c>
+      <c r="K23" s="3">
         <v>7173200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7120300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2792200</v>
+        <v>2506500</v>
       </c>
       <c r="E24" s="3">
-        <v>2465000</v>
+        <v>2816600</v>
       </c>
       <c r="F24" s="3">
-        <v>2110400</v>
+        <v>2489900</v>
       </c>
       <c r="G24" s="3">
-        <v>2153200</v>
+        <v>2128800</v>
       </c>
       <c r="H24" s="3">
-        <v>2339800</v>
+        <v>2172000</v>
       </c>
       <c r="I24" s="3">
-        <v>2032400</v>
+        <v>2360300</v>
       </c>
       <c r="J24" s="3">
+        <v>2050200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1863300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1848800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10779100</v>
+        <v>6674400</v>
       </c>
       <c r="E26" s="3">
-        <v>6487000</v>
+        <v>10873300</v>
       </c>
       <c r="F26" s="3">
-        <v>6090600</v>
+        <v>6510500</v>
       </c>
       <c r="G26" s="3">
-        <v>5774400</v>
+        <v>6143900</v>
       </c>
       <c r="H26" s="3">
-        <v>6055500</v>
+        <v>5824900</v>
       </c>
       <c r="I26" s="3">
-        <v>5778800</v>
+        <v>6108400</v>
       </c>
       <c r="J26" s="3">
+        <v>5829300</v>
+      </c>
+      <c r="K26" s="3">
         <v>5309900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5271600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10319000</v>
+        <v>6230300</v>
       </c>
       <c r="E27" s="3">
-        <v>6011600</v>
+        <v>10409200</v>
       </c>
       <c r="F27" s="3">
-        <v>5692000</v>
+        <v>6030900</v>
       </c>
       <c r="G27" s="3">
-        <v>5390100</v>
+        <v>5741800</v>
       </c>
       <c r="H27" s="3">
-        <v>5677800</v>
+        <v>5437200</v>
       </c>
       <c r="I27" s="3">
-        <v>5316500</v>
+        <v>5727400</v>
       </c>
       <c r="J27" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="K27" s="3">
         <v>4796100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4836100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,20 +1345,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-31800</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>634600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>-32100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>640200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1317,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-187800</v>
+        <v>-342200</v>
       </c>
       <c r="E32" s="3">
-        <v>-271200</v>
+        <v>-330100</v>
       </c>
       <c r="F32" s="3">
-        <v>-263500</v>
+        <v>-269100</v>
       </c>
       <c r="G32" s="3">
-        <v>-282200</v>
+        <v>-261400</v>
       </c>
       <c r="H32" s="3">
-        <v>-166900</v>
+        <v>-280200</v>
       </c>
       <c r="I32" s="3">
-        <v>-103200</v>
+        <v>-163900</v>
       </c>
       <c r="J32" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-658800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-836900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10287200</v>
+        <v>6230300</v>
       </c>
       <c r="E33" s="3">
-        <v>6646200</v>
+        <v>10377100</v>
       </c>
       <c r="F33" s="3">
-        <v>5692000</v>
+        <v>6671100</v>
       </c>
       <c r="G33" s="3">
-        <v>5390100</v>
+        <v>5741800</v>
       </c>
       <c r="H33" s="3">
-        <v>5677800</v>
+        <v>5437200</v>
       </c>
       <c r="I33" s="3">
-        <v>5316500</v>
+        <v>5727400</v>
       </c>
       <c r="J33" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="K33" s="3">
         <v>4796100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4836100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10287200</v>
+        <v>6230300</v>
       </c>
       <c r="E35" s="3">
-        <v>6646200</v>
+        <v>10377100</v>
       </c>
       <c r="F35" s="3">
-        <v>5692000</v>
+        <v>6671100</v>
       </c>
       <c r="G35" s="3">
-        <v>5390100</v>
+        <v>5741800</v>
       </c>
       <c r="H35" s="3">
-        <v>5677800</v>
+        <v>5437200</v>
       </c>
       <c r="I35" s="3">
-        <v>5316500</v>
+        <v>5727400</v>
       </c>
       <c r="J35" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="K35" s="3">
         <v>4796100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4836100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7093100</v>
+        <v>4644500</v>
       </c>
       <c r="E41" s="3">
-        <v>3642100</v>
+        <v>7169300</v>
       </c>
       <c r="F41" s="3">
-        <v>3713400</v>
+        <v>7362400</v>
       </c>
       <c r="G41" s="3">
-        <v>2527600</v>
+        <v>3753300</v>
       </c>
       <c r="H41" s="3">
-        <v>2361800</v>
+        <v>2554800</v>
       </c>
       <c r="I41" s="3">
-        <v>2508900</v>
+        <v>2387200</v>
       </c>
       <c r="J41" s="3">
+        <v>2535900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1065100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1456700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1944600</v>
+        <v>1133100</v>
       </c>
       <c r="E42" s="3">
-        <v>659900</v>
+        <v>1965500</v>
       </c>
       <c r="F42" s="3">
-        <v>616000</v>
+        <v>1521500</v>
       </c>
       <c r="G42" s="3">
-        <v>786200</v>
+        <v>622600</v>
       </c>
       <c r="H42" s="3">
-        <v>547900</v>
+        <v>794600</v>
       </c>
       <c r="I42" s="3">
-        <v>957500</v>
+        <v>553800</v>
       </c>
       <c r="J42" s="3">
+        <v>967700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2079600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3246800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13666800</v>
+        <v>6997300</v>
       </c>
       <c r="E43" s="3">
-        <v>5768900</v>
+        <v>13813700</v>
       </c>
       <c r="F43" s="3">
-        <v>5190200</v>
+        <v>11622900</v>
       </c>
       <c r="G43" s="3">
-        <v>3750800</v>
+        <v>5246000</v>
       </c>
       <c r="H43" s="3">
-        <v>4968500</v>
+        <v>3791100</v>
       </c>
       <c r="I43" s="3">
-        <v>4440300</v>
+        <v>5021800</v>
       </c>
       <c r="J43" s="3">
+        <v>4488000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4270100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5695300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9445000</v>
+        <v>4621200</v>
       </c>
       <c r="E44" s="3">
-        <v>4350300</v>
+        <v>9546500</v>
       </c>
       <c r="F44" s="3">
-        <v>4697200</v>
+        <v>8794100</v>
       </c>
       <c r="G44" s="3">
-        <v>4759800</v>
+        <v>4747700</v>
       </c>
       <c r="H44" s="3">
-        <v>4576500</v>
+        <v>4811000</v>
       </c>
       <c r="I44" s="3">
-        <v>4322800</v>
+        <v>4625600</v>
       </c>
       <c r="J44" s="3">
+        <v>4369300</v>
+      </c>
+      <c r="K44" s="3">
         <v>4870700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1194600</v>
+        <v>837900</v>
       </c>
       <c r="E45" s="3">
-        <v>4226200</v>
+        <v>1204100</v>
       </c>
       <c r="F45" s="3">
-        <v>1027700</v>
+        <v>4271600</v>
       </c>
       <c r="G45" s="3">
-        <v>2104900</v>
+        <v>1038800</v>
       </c>
       <c r="H45" s="3">
-        <v>1102400</v>
+        <v>2127500</v>
       </c>
       <c r="I45" s="3">
-        <v>1080400</v>
+        <v>1114200</v>
       </c>
       <c r="J45" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1051900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>975400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16994800</v>
+        <v>18234000</v>
       </c>
       <c r="E46" s="3">
-        <v>18647300</v>
+        <v>17177500</v>
       </c>
       <c r="F46" s="3">
-        <v>15244600</v>
+        <v>18844400</v>
       </c>
       <c r="G46" s="3">
-        <v>13929200</v>
+        <v>15408500</v>
       </c>
       <c r="H46" s="3">
-        <v>13557000</v>
+        <v>14078900</v>
       </c>
       <c r="I46" s="3">
-        <v>13310000</v>
+        <v>13702700</v>
       </c>
       <c r="J46" s="3">
+        <v>13453000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13337400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16774900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1972000</v>
+        <v>1549300</v>
       </c>
       <c r="E47" s="3">
-        <v>1206700</v>
+        <v>1993200</v>
       </c>
       <c r="F47" s="3">
-        <v>1471300</v>
+        <v>1968800</v>
       </c>
       <c r="G47" s="3">
-        <v>1458100</v>
+        <v>1487100</v>
       </c>
       <c r="H47" s="3">
-        <v>1460300</v>
+        <v>1473800</v>
       </c>
       <c r="I47" s="3">
-        <v>1135300</v>
+        <v>1476000</v>
       </c>
       <c r="J47" s="3">
+        <v>1147500</v>
+      </c>
+      <c r="K47" s="3">
         <v>867400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>871000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24653400</v>
+        <v>13405300</v>
       </c>
       <c r="E48" s="3">
-        <v>11449900</v>
+        <v>28538500</v>
       </c>
       <c r="F48" s="3">
-        <v>12873000</v>
+        <v>25190200</v>
       </c>
       <c r="G48" s="3">
-        <v>12194400</v>
+        <v>13011300</v>
       </c>
       <c r="H48" s="3">
-        <v>11544400</v>
+        <v>12325400</v>
       </c>
       <c r="I48" s="3">
-        <v>10297000</v>
+        <v>11668400</v>
       </c>
       <c r="J48" s="3">
+        <v>10407700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10402500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10336600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64766600</v>
+        <v>34436000</v>
       </c>
       <c r="E49" s="3">
-        <v>31184300</v>
+        <v>65462700</v>
       </c>
       <c r="F49" s="3">
-        <v>30121400</v>
+        <v>63038900</v>
       </c>
       <c r="G49" s="3">
-        <v>27514800</v>
+        <v>30445100</v>
       </c>
       <c r="H49" s="3">
-        <v>24347100</v>
+        <v>27810500</v>
       </c>
       <c r="I49" s="3">
-        <v>22952600</v>
+        <v>24608700</v>
       </c>
       <c r="J49" s="3">
+        <v>23199300</v>
+      </c>
+      <c r="K49" s="3">
         <v>23846400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25721700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3873700</v>
+        <v>4297100</v>
       </c>
       <c r="E52" s="3">
-        <v>3704700</v>
+        <v>3915400</v>
       </c>
       <c r="F52" s="3">
-        <v>2248700</v>
+        <v>4270500</v>
       </c>
       <c r="G52" s="3">
-        <v>2326700</v>
+        <v>2272900</v>
       </c>
       <c r="H52" s="3">
-        <v>1824900</v>
+        <v>2351700</v>
       </c>
       <c r="I52" s="3">
-        <v>2278400</v>
+        <v>1844500</v>
       </c>
       <c r="J52" s="3">
+        <v>2302800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2236600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2065900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67099900</v>
+        <v>71921700</v>
       </c>
       <c r="E54" s="3">
-        <v>66192900</v>
+        <v>67821000</v>
       </c>
       <c r="F54" s="3">
-        <v>61959000</v>
+        <v>68872000</v>
       </c>
       <c r="G54" s="3">
-        <v>57423200</v>
+        <v>62624900</v>
       </c>
       <c r="H54" s="3">
-        <v>52733600</v>
+        <v>58040300</v>
       </c>
       <c r="I54" s="3">
-        <v>49973300</v>
+        <v>53300400</v>
       </c>
       <c r="J54" s="3">
+        <v>50510300</v>
+      </c>
+      <c r="K54" s="3">
         <v>50690300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55770100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25888600</v>
+        <v>10199100</v>
       </c>
       <c r="E57" s="3">
-        <v>9022300</v>
+        <v>26166900</v>
       </c>
       <c r="F57" s="3">
-        <v>9432900</v>
+        <v>24019400</v>
       </c>
       <c r="G57" s="3">
-        <v>9109000</v>
+        <v>9534300</v>
       </c>
       <c r="H57" s="3">
-        <v>8384300</v>
+        <v>9206900</v>
       </c>
       <c r="I57" s="3">
-        <v>7680500</v>
+        <v>8474400</v>
       </c>
       <c r="J57" s="3">
+        <v>7763100</v>
+      </c>
+      <c r="K57" s="3">
         <v>7778200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7943200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7217200</v>
+        <v>4938600</v>
       </c>
       <c r="E58" s="3">
-        <v>8460100</v>
+        <v>7713100</v>
       </c>
       <c r="F58" s="3">
-        <v>5792000</v>
+        <v>17848900</v>
       </c>
       <c r="G58" s="3">
-        <v>4811400</v>
+        <v>5854200</v>
       </c>
       <c r="H58" s="3">
-        <v>5521800</v>
+        <v>4863100</v>
       </c>
       <c r="I58" s="3">
-        <v>3889100</v>
+        <v>5581200</v>
       </c>
       <c r="J58" s="3">
+        <v>3930900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2916300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6855100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8444700</v>
+        <v>8143700</v>
       </c>
       <c r="E59" s="3">
-        <v>7966000</v>
+        <v>8536600</v>
       </c>
       <c r="F59" s="3">
-        <v>7345600</v>
+        <v>8051600</v>
       </c>
       <c r="G59" s="3">
-        <v>8060400</v>
+        <v>7424600</v>
       </c>
       <c r="H59" s="3">
-        <v>7660700</v>
+        <v>8147000</v>
       </c>
       <c r="I59" s="3">
-        <v>7515800</v>
+        <v>7743100</v>
       </c>
       <c r="J59" s="3">
+        <v>7596600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6670400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6247000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22124700</v>
+        <v>23281400</v>
       </c>
       <c r="E60" s="3">
-        <v>25448300</v>
+        <v>22362500</v>
       </c>
       <c r="F60" s="3">
-        <v>22570500</v>
+        <v>26176900</v>
       </c>
       <c r="G60" s="3">
-        <v>21980900</v>
+        <v>22813000</v>
       </c>
       <c r="H60" s="3">
-        <v>21566900</v>
+        <v>22217100</v>
       </c>
       <c r="I60" s="3">
-        <v>19085400</v>
+        <v>21798700</v>
       </c>
       <c r="J60" s="3">
+        <v>19290500</v>
+      </c>
+      <c r="K60" s="3">
         <v>17364900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21045200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25391300</v>
+        <v>25918300</v>
       </c>
       <c r="E61" s="3">
-        <v>17707400</v>
+        <v>25357800</v>
       </c>
       <c r="F61" s="3">
-        <v>12226200</v>
+        <v>20019700</v>
       </c>
       <c r="G61" s="3">
-        <v>10593500</v>
+        <v>12357600</v>
       </c>
       <c r="H61" s="3">
-        <v>7603700</v>
+        <v>10707400</v>
       </c>
       <c r="I61" s="3">
-        <v>8115300</v>
+        <v>7685400</v>
       </c>
       <c r="J61" s="3">
+        <v>8202500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8306400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9247300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6963500</v>
+        <v>7311400</v>
       </c>
       <c r="E62" s="3">
-        <v>7240200</v>
+        <v>7037200</v>
       </c>
       <c r="F62" s="3">
-        <v>8518300</v>
+        <v>8067100</v>
       </c>
       <c r="G62" s="3">
-        <v>7190800</v>
+        <v>8609800</v>
       </c>
       <c r="H62" s="3">
-        <v>7902300</v>
+        <v>7268100</v>
       </c>
       <c r="I62" s="3">
-        <v>6505700</v>
+        <v>7987200</v>
       </c>
       <c r="J62" s="3">
+        <v>6575600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7762900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7963100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54586000</v>
+        <v>57281200</v>
       </c>
       <c r="E66" s="3">
-        <v>51228300</v>
+        <v>55172600</v>
       </c>
       <c r="F66" s="3">
-        <v>44002400</v>
+        <v>53956300</v>
       </c>
       <c r="G66" s="3">
-        <v>40471200</v>
+        <v>44475200</v>
       </c>
       <c r="H66" s="3">
-        <v>37744800</v>
+        <v>40906100</v>
       </c>
       <c r="I66" s="3">
-        <v>34223600</v>
+        <v>38150500</v>
       </c>
       <c r="J66" s="3">
+        <v>34591400</v>
+      </c>
+      <c r="K66" s="3">
         <v>34045700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38992800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11788100</v>
+        <v>20077400</v>
       </c>
       <c r="E72" s="3">
-        <v>29100300</v>
+        <v>11912600</v>
       </c>
       <c r="F72" s="3">
-        <v>25485700</v>
+        <v>29150000</v>
       </c>
       <c r="G72" s="3">
-        <v>24671000</v>
+        <v>25759600</v>
       </c>
       <c r="H72" s="3">
-        <v>22410200</v>
+        <v>24936100</v>
       </c>
       <c r="I72" s="3">
-        <v>22509000</v>
+        <v>22651000</v>
       </c>
       <c r="J72" s="3">
+        <v>22750900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15959400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16048300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12513900</v>
+        <v>14640500</v>
       </c>
       <c r="E76" s="3">
-        <v>14964600</v>
+        <v>12648400</v>
       </c>
       <c r="F76" s="3">
-        <v>17956700</v>
+        <v>14915700</v>
       </c>
       <c r="G76" s="3">
-        <v>16952000</v>
+        <v>18149700</v>
       </c>
       <c r="H76" s="3">
-        <v>14988800</v>
+        <v>17134200</v>
       </c>
       <c r="I76" s="3">
-        <v>15749700</v>
+        <v>15149900</v>
       </c>
       <c r="J76" s="3">
+        <v>15919000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16644600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16777300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10287200</v>
+        <v>6230300</v>
       </c>
       <c r="E81" s="3">
-        <v>6646200</v>
+        <v>10377100</v>
       </c>
       <c r="F81" s="3">
-        <v>5692000</v>
+        <v>6671100</v>
       </c>
       <c r="G81" s="3">
-        <v>5390100</v>
+        <v>5741800</v>
       </c>
       <c r="H81" s="3">
-        <v>5677800</v>
+        <v>5437200</v>
       </c>
       <c r="I81" s="3">
-        <v>5316500</v>
+        <v>5727400</v>
       </c>
       <c r="J81" s="3">
+        <v>5363000</v>
+      </c>
+      <c r="K81" s="3">
         <v>4796100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4836100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1918200</v>
+        <v>2195300</v>
       </c>
       <c r="E83" s="3">
-        <v>1688700</v>
+        <v>2454400</v>
       </c>
       <c r="F83" s="3">
-        <v>1607500</v>
+        <v>2242900</v>
       </c>
       <c r="G83" s="3">
-        <v>1504300</v>
+        <v>1621500</v>
       </c>
       <c r="H83" s="3">
-        <v>1572300</v>
+        <v>1517400</v>
       </c>
       <c r="I83" s="3">
-        <v>1263800</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1586100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1207900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7414800</v>
+        <v>8981500</v>
       </c>
       <c r="E89" s="3">
-        <v>8006600</v>
+        <v>8105400</v>
       </c>
       <c r="F89" s="3">
-        <v>7737600</v>
+        <v>8726800</v>
       </c>
       <c r="G89" s="3">
-        <v>8048300</v>
+        <v>7805300</v>
       </c>
       <c r="H89" s="3">
-        <v>6086200</v>
+        <v>8118700</v>
       </c>
       <c r="I89" s="3">
-        <v>6910800</v>
+        <v>6139400</v>
       </c>
       <c r="J89" s="3">
+        <v>6971200</v>
+      </c>
+      <c r="K89" s="3">
         <v>7505900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6399600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1459200</v>
+        <v>-1457600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1656900</v>
+        <v>-1472000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1980800</v>
+        <v>-1671400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2050000</v>
+        <v>-1998100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2078500</v>
+        <v>-2067900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1966500</v>
+        <v>-2096700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1983700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2168600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2463800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5099100</v>
+        <v>-2477700</v>
       </c>
       <c r="E94" s="3">
-        <v>-6455100</v>
+        <v>5143700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3500400</v>
+        <v>-6511600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3885800</v>
+        <v>-3531000</v>
       </c>
       <c r="H94" s="3">
-        <v>-374400</v>
+        <v>-3919800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1274800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-377700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1285900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5243400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4464500</v>
+        <v>-4661900</v>
       </c>
       <c r="E96" s="3">
-        <v>-4299800</v>
+        <v>-4503500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3962700</v>
+        <v>-4337400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3657400</v>
+        <v>-3997300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3501500</v>
+        <v>-3689400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3286300</v>
+        <v>-3532100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3315000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2963500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2916900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12679700</v>
+        <v>-5169200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1573400</v>
+        <v>-13416400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3374200</v>
+        <v>-2237400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3329100</v>
+        <v>-3403700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5698600</v>
+        <v>-3358200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5918200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-5748400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5970000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>482400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79100</v>
+        <v>-198300</v>
       </c>
       <c r="E101" s="3">
-        <v>-9900</v>
+        <v>79700</v>
       </c>
       <c r="F101" s="3">
-        <v>311800</v>
+        <v>-10000</v>
       </c>
       <c r="G101" s="3">
-        <v>-594000</v>
+        <v>314600</v>
       </c>
       <c r="H101" s="3">
-        <v>-160300</v>
+        <v>-599200</v>
       </c>
       <c r="I101" s="3">
-        <v>92200</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-161700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-450700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-86700</v>
+        <v>1136400</v>
       </c>
       <c r="E102" s="3">
-        <v>-31800</v>
+        <v>-87500</v>
       </c>
       <c r="F102" s="3">
-        <v>1174900</v>
+        <v>-32100</v>
       </c>
       <c r="G102" s="3">
-        <v>239400</v>
+        <v>1185100</v>
       </c>
       <c r="H102" s="3">
-        <v>-147100</v>
+        <v>241500</v>
       </c>
       <c r="I102" s="3">
-        <v>-190000</v>
+        <v>-148400</v>
       </c>
       <c r="J102" s="3">
+        <v>-191600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-835600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1187900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UN_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57573000</v>
+        <v>61487100</v>
       </c>
       <c r="E8" s="3">
-        <v>56467700</v>
+        <v>60306600</v>
       </c>
       <c r="F8" s="3">
-        <v>59494700</v>
+        <v>63539500</v>
       </c>
       <c r="G8" s="3">
-        <v>58384900</v>
+        <v>62354200</v>
       </c>
       <c r="H8" s="3">
-        <v>59004100</v>
+        <v>63015400</v>
       </c>
       <c r="I8" s="3">
-        <v>53647700</v>
+        <v>57294900</v>
       </c>
       <c r="J8" s="3">
-        <v>55155200</v>
+        <v>58904900</v>
       </c>
       <c r="K8" s="3">
         <v>56353800</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32233400</v>
+        <v>34424800</v>
       </c>
       <c r="E9" s="3">
-        <v>60224600</v>
+        <v>64319000</v>
       </c>
       <c r="F9" s="3">
-        <v>64008200</v>
+        <v>68359800</v>
       </c>
       <c r="G9" s="3">
-        <v>29886400</v>
+        <v>31918200</v>
       </c>
       <c r="H9" s="3">
-        <v>30403600</v>
+        <v>32470600</v>
       </c>
       <c r="I9" s="3">
-        <v>31441400</v>
+        <v>33579000</v>
       </c>
       <c r="J9" s="3">
-        <v>32192400</v>
+        <v>34381000</v>
       </c>
       <c r="K9" s="3">
         <v>33711900</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25339700</v>
+        <v>27062400</v>
       </c>
       <c r="E10" s="3">
-        <v>-3757000</v>
+        <v>-4012400</v>
       </c>
       <c r="F10" s="3">
-        <v>-4513500</v>
+        <v>-4820300</v>
       </c>
       <c r="G10" s="3">
-        <v>28498500</v>
+        <v>30436000</v>
       </c>
       <c r="H10" s="3">
-        <v>28600400</v>
+        <v>30544800</v>
       </c>
       <c r="I10" s="3">
-        <v>22206300</v>
+        <v>23716000</v>
       </c>
       <c r="J10" s="3">
-        <v>22962800</v>
+        <v>24523900</v>
       </c>
       <c r="K10" s="3">
         <v>22641900</v>
@@ -833,25 +833,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>930400</v>
+        <v>993600</v>
       </c>
       <c r="E12" s="3">
-        <v>996800</v>
+        <v>1064600</v>
       </c>
       <c r="F12" s="3">
-        <v>996800</v>
+        <v>1064600</v>
       </c>
       <c r="G12" s="3">
-        <v>1083200</v>
+        <v>1156900</v>
       </c>
       <c r="H12" s="3">
-        <v>1113100</v>
+        <v>1188800</v>
       </c>
       <c r="I12" s="3">
-        <v>1057800</v>
+        <v>1129700</v>
       </c>
       <c r="J12" s="3">
-        <v>1151900</v>
+        <v>1230200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -899,25 +899,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1333600</v>
+        <v>1424200</v>
       </c>
       <c r="E14" s="3">
-        <v>-3688300</v>
+        <v>-3939100</v>
       </c>
       <c r="F14" s="3">
-        <v>1024500</v>
+        <v>1094200</v>
       </c>
       <c r="G14" s="3">
-        <v>-271400</v>
+        <v>-289800</v>
       </c>
       <c r="H14" s="3">
-        <v>-387700</v>
+        <v>-414000</v>
       </c>
       <c r="I14" s="3">
-        <v>1063300</v>
+        <v>1135600</v>
       </c>
       <c r="J14" s="3">
-        <v>554900</v>
+        <v>592600</v>
       </c>
       <c r="K14" s="3">
         <v>-80200</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47889300</v>
+        <v>51145000</v>
       </c>
       <c r="E17" s="3">
-        <v>42298100</v>
+        <v>45173800</v>
       </c>
       <c r="F17" s="3">
-        <v>49997100</v>
+        <v>53396100</v>
       </c>
       <c r="G17" s="3">
-        <v>49744500</v>
+        <v>53126400</v>
       </c>
       <c r="H17" s="3">
-        <v>50680500</v>
+        <v>54126000</v>
       </c>
       <c r="I17" s="3">
-        <v>44809100</v>
+        <v>47855400</v>
       </c>
       <c r="J17" s="3">
-        <v>46829300</v>
+        <v>50013000</v>
       </c>
       <c r="K17" s="3">
         <v>48693000</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9683700</v>
+        <v>10342100</v>
       </c>
       <c r="E18" s="3">
-        <v>14169500</v>
+        <v>15132800</v>
       </c>
       <c r="F18" s="3">
-        <v>9497700</v>
+        <v>10143400</v>
       </c>
       <c r="G18" s="3">
-        <v>8640400</v>
+        <v>9227800</v>
       </c>
       <c r="H18" s="3">
-        <v>8323600</v>
+        <v>8889500</v>
       </c>
       <c r="I18" s="3">
-        <v>8838600</v>
+        <v>9439500</v>
       </c>
       <c r="J18" s="3">
-        <v>8325800</v>
+        <v>8891900</v>
       </c>
       <c r="K18" s="3">
         <v>7660700</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>342200</v>
+        <v>365500</v>
       </c>
       <c r="E20" s="3">
-        <v>330100</v>
+        <v>352500</v>
       </c>
       <c r="F20" s="3">
-        <v>269100</v>
+        <v>287400</v>
       </c>
       <c r="G20" s="3">
-        <v>261400</v>
+        <v>279200</v>
       </c>
       <c r="H20" s="3">
-        <v>280200</v>
+        <v>299300</v>
       </c>
       <c r="I20" s="3">
-        <v>163900</v>
+        <v>175100</v>
       </c>
       <c r="J20" s="3">
-        <v>99700</v>
+        <v>106500</v>
       </c>
       <c r="K20" s="3">
         <v>658800</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12206800</v>
+        <v>13052900</v>
       </c>
       <c r="E21" s="3">
-        <v>16937900</v>
+        <v>18107600</v>
       </c>
       <c r="F21" s="3">
-        <v>11994900</v>
+        <v>12827000</v>
       </c>
       <c r="G21" s="3">
-        <v>10512600</v>
+        <v>11239300</v>
       </c>
       <c r="H21" s="3">
-        <v>10111200</v>
+        <v>10809900</v>
       </c>
       <c r="I21" s="3">
-        <v>10578200</v>
+        <v>11309100</v>
       </c>
       <c r="J21" s="3">
-        <v>9692000</v>
+        <v>10360300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>845100</v>
+        <v>902600</v>
       </c>
       <c r="E22" s="3">
-        <v>809700</v>
+        <v>864700</v>
       </c>
       <c r="F22" s="3">
-        <v>766500</v>
+        <v>818600</v>
       </c>
       <c r="G22" s="3">
-        <v>629100</v>
+        <v>671900</v>
       </c>
       <c r="H22" s="3">
-        <v>607000</v>
+        <v>648200</v>
       </c>
       <c r="I22" s="3">
-        <v>533900</v>
+        <v>570200</v>
       </c>
       <c r="J22" s="3">
-        <v>546000</v>
+        <v>583200</v>
       </c>
       <c r="K22" s="3">
         <v>1146300</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9180900</v>
+        <v>9805100</v>
       </c>
       <c r="E23" s="3">
-        <v>13689900</v>
+        <v>14620600</v>
       </c>
       <c r="F23" s="3">
-        <v>9000400</v>
+        <v>9612200</v>
       </c>
       <c r="G23" s="3">
-        <v>8272700</v>
+        <v>8835100</v>
       </c>
       <c r="H23" s="3">
-        <v>7996900</v>
+        <v>8540500</v>
       </c>
       <c r="I23" s="3">
-        <v>8468700</v>
+        <v>9044500</v>
       </c>
       <c r="J23" s="3">
-        <v>7879500</v>
+        <v>8415200</v>
       </c>
       <c r="K23" s="3">
         <v>7173200</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2506500</v>
+        <v>2676900</v>
       </c>
       <c r="E24" s="3">
-        <v>2816600</v>
+        <v>3008100</v>
       </c>
       <c r="F24" s="3">
-        <v>2489900</v>
+        <v>2659200</v>
       </c>
       <c r="G24" s="3">
-        <v>2128800</v>
+        <v>2273500</v>
       </c>
       <c r="H24" s="3">
-        <v>2172000</v>
+        <v>2319700</v>
       </c>
       <c r="I24" s="3">
-        <v>2360300</v>
+        <v>2520800</v>
       </c>
       <c r="J24" s="3">
-        <v>2050200</v>
+        <v>2189500</v>
       </c>
       <c r="K24" s="3">
         <v>1863300</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6674400</v>
+        <v>7128200</v>
       </c>
       <c r="E26" s="3">
-        <v>10873300</v>
+        <v>11612500</v>
       </c>
       <c r="F26" s="3">
-        <v>6510500</v>
+        <v>6953100</v>
       </c>
       <c r="G26" s="3">
-        <v>6143900</v>
+        <v>6561500</v>
       </c>
       <c r="H26" s="3">
-        <v>5824900</v>
+        <v>6220900</v>
       </c>
       <c r="I26" s="3">
-        <v>6108400</v>
+        <v>6523700</v>
       </c>
       <c r="J26" s="3">
-        <v>5829300</v>
+        <v>6225600</v>
       </c>
       <c r="K26" s="3">
         <v>5309900</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6230300</v>
+        <v>6653800</v>
       </c>
       <c r="E27" s="3">
-        <v>10409200</v>
+        <v>11116900</v>
       </c>
       <c r="F27" s="3">
-        <v>6030900</v>
+        <v>6440900</v>
       </c>
       <c r="G27" s="3">
-        <v>5741800</v>
+        <v>6132200</v>
       </c>
       <c r="H27" s="3">
-        <v>5437200</v>
+        <v>5806900</v>
       </c>
       <c r="I27" s="3">
-        <v>5727400</v>
+        <v>6116800</v>
       </c>
       <c r="J27" s="3">
-        <v>5363000</v>
+        <v>5727600</v>
       </c>
       <c r="K27" s="3">
         <v>4796100</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-32100</v>
+        <v>-34300</v>
       </c>
       <c r="F29" s="3">
-        <v>640200</v>
+        <v>683700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-342200</v>
+        <v>-365500</v>
       </c>
       <c r="E32" s="3">
-        <v>-330100</v>
+        <v>-352500</v>
       </c>
       <c r="F32" s="3">
-        <v>-269100</v>
+        <v>-287400</v>
       </c>
       <c r="G32" s="3">
-        <v>-261400</v>
+        <v>-279200</v>
       </c>
       <c r="H32" s="3">
-        <v>-280200</v>
+        <v>-299300</v>
       </c>
       <c r="I32" s="3">
-        <v>-163900</v>
+        <v>-175100</v>
       </c>
       <c r="J32" s="3">
-        <v>-99700</v>
+        <v>-106500</v>
       </c>
       <c r="K32" s="3">
         <v>-658800</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6230300</v>
+        <v>6653800</v>
       </c>
       <c r="E33" s="3">
-        <v>10377100</v>
+        <v>11082600</v>
       </c>
       <c r="F33" s="3">
-        <v>6671100</v>
+        <v>7124600</v>
       </c>
       <c r="G33" s="3">
-        <v>5741800</v>
+        <v>6132200</v>
       </c>
       <c r="H33" s="3">
-        <v>5437200</v>
+        <v>5806900</v>
       </c>
       <c r="I33" s="3">
-        <v>5727400</v>
+        <v>6116800</v>
       </c>
       <c r="J33" s="3">
-        <v>5363000</v>
+        <v>5727600</v>
       </c>
       <c r="K33" s="3">
         <v>4796100</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6230300</v>
+        <v>6653800</v>
       </c>
       <c r="E35" s="3">
-        <v>10377100</v>
+        <v>11082600</v>
       </c>
       <c r="F35" s="3">
-        <v>6671100</v>
+        <v>7124600</v>
       </c>
       <c r="G35" s="3">
-        <v>5741800</v>
+        <v>6132200</v>
       </c>
       <c r="H35" s="3">
-        <v>5437200</v>
+        <v>5806900</v>
       </c>
       <c r="I35" s="3">
-        <v>5727400</v>
+        <v>6116800</v>
       </c>
       <c r="J35" s="3">
-        <v>5363000</v>
+        <v>5727600</v>
       </c>
       <c r="K35" s="3">
         <v>4796100</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4644500</v>
+        <v>4950400</v>
       </c>
       <c r="E41" s="3">
-        <v>7169300</v>
+        <v>7641500</v>
       </c>
       <c r="F41" s="3">
-        <v>7362400</v>
+        <v>7847400</v>
       </c>
       <c r="G41" s="3">
-        <v>3753300</v>
+        <v>4000600</v>
       </c>
       <c r="H41" s="3">
-        <v>2554800</v>
+        <v>2723000</v>
       </c>
       <c r="I41" s="3">
-        <v>2387200</v>
+        <v>2544400</v>
       </c>
       <c r="J41" s="3">
-        <v>2535900</v>
+        <v>2702900</v>
       </c>
       <c r="K41" s="3">
         <v>1065100</v>
@@ -1687,25 +1687,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1133100</v>
+        <v>1207700</v>
       </c>
       <c r="E42" s="3">
-        <v>1965500</v>
+        <v>2094900</v>
       </c>
       <c r="F42" s="3">
-        <v>1521500</v>
+        <v>1621800</v>
       </c>
       <c r="G42" s="3">
-        <v>622600</v>
+        <v>663600</v>
       </c>
       <c r="H42" s="3">
-        <v>794600</v>
+        <v>847000</v>
       </c>
       <c r="I42" s="3">
-        <v>553800</v>
+        <v>590300</v>
       </c>
       <c r="J42" s="3">
-        <v>967700</v>
+        <v>1031500</v>
       </c>
       <c r="K42" s="3">
         <v>2079600</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6997300</v>
+        <v>7458200</v>
       </c>
       <c r="E43" s="3">
-        <v>13813700</v>
+        <v>14723600</v>
       </c>
       <c r="F43" s="3">
-        <v>11622900</v>
+        <v>12388500</v>
       </c>
       <c r="G43" s="3">
-        <v>5246000</v>
+        <v>5591600</v>
       </c>
       <c r="H43" s="3">
-        <v>3791100</v>
+        <v>4040800</v>
       </c>
       <c r="I43" s="3">
-        <v>5021800</v>
+        <v>5352600</v>
       </c>
       <c r="J43" s="3">
-        <v>4488000</v>
+        <v>4783600</v>
       </c>
       <c r="K43" s="3">
         <v>4270100</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4621200</v>
+        <v>4925600</v>
       </c>
       <c r="E44" s="3">
-        <v>9546500</v>
+        <v>10175300</v>
       </c>
       <c r="F44" s="3">
-        <v>8794100</v>
+        <v>9373300</v>
       </c>
       <c r="G44" s="3">
-        <v>4747700</v>
+        <v>5060400</v>
       </c>
       <c r="H44" s="3">
-        <v>4811000</v>
+        <v>5127900</v>
       </c>
       <c r="I44" s="3">
-        <v>4625600</v>
+        <v>4930300</v>
       </c>
       <c r="J44" s="3">
-        <v>4369300</v>
+        <v>4657100</v>
       </c>
       <c r="K44" s="3">
         <v>4870700</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>837900</v>
+        <v>893100</v>
       </c>
       <c r="E45" s="3">
-        <v>1204100</v>
+        <v>1283400</v>
       </c>
       <c r="F45" s="3">
-        <v>4271600</v>
+        <v>4553000</v>
       </c>
       <c r="G45" s="3">
-        <v>1038800</v>
+        <v>1107200</v>
       </c>
       <c r="H45" s="3">
-        <v>2127500</v>
+        <v>2267600</v>
       </c>
       <c r="I45" s="3">
-        <v>1114200</v>
+        <v>1187600</v>
       </c>
       <c r="J45" s="3">
-        <v>1092000</v>
+        <v>1164000</v>
       </c>
       <c r="K45" s="3">
         <v>1051900</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18234000</v>
+        <v>19435000</v>
       </c>
       <c r="E46" s="3">
-        <v>17177500</v>
+        <v>18308900</v>
       </c>
       <c r="F46" s="3">
-        <v>18844400</v>
+        <v>20085600</v>
       </c>
       <c r="G46" s="3">
-        <v>15408500</v>
+        <v>16423400</v>
       </c>
       <c r="H46" s="3">
-        <v>14078900</v>
+        <v>15006300</v>
       </c>
       <c r="I46" s="3">
-        <v>13702700</v>
+        <v>14605300</v>
       </c>
       <c r="J46" s="3">
-        <v>13453000</v>
+        <v>14339100</v>
       </c>
       <c r="K46" s="3">
         <v>13337400</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1549300</v>
+        <v>1651300</v>
       </c>
       <c r="E47" s="3">
-        <v>1993200</v>
+        <v>2124500</v>
       </c>
       <c r="F47" s="3">
-        <v>1968800</v>
+        <v>2098500</v>
       </c>
       <c r="G47" s="3">
-        <v>1487100</v>
+        <v>1585100</v>
       </c>
       <c r="H47" s="3">
-        <v>1473800</v>
+        <v>1570900</v>
       </c>
       <c r="I47" s="3">
-        <v>1476000</v>
+        <v>1573300</v>
       </c>
       <c r="J47" s="3">
-        <v>1147500</v>
+        <v>1223100</v>
       </c>
       <c r="K47" s="3">
         <v>867400</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13405300</v>
+        <v>14288200</v>
       </c>
       <c r="E48" s="3">
-        <v>28538500</v>
+        <v>30418300</v>
       </c>
       <c r="F48" s="3">
-        <v>25190200</v>
+        <v>26849500</v>
       </c>
       <c r="G48" s="3">
-        <v>13011300</v>
+        <v>13868300</v>
       </c>
       <c r="H48" s="3">
-        <v>12325400</v>
+        <v>13137300</v>
       </c>
       <c r="I48" s="3">
-        <v>11668400</v>
+        <v>12437000</v>
       </c>
       <c r="J48" s="3">
-        <v>10407700</v>
+        <v>11093200</v>
       </c>
       <c r="K48" s="3">
         <v>10402500</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34436000</v>
+        <v>36704200</v>
       </c>
       <c r="E49" s="3">
-        <v>65462700</v>
+        <v>69774500</v>
       </c>
       <c r="F49" s="3">
-        <v>63038900</v>
+        <v>67191100</v>
       </c>
       <c r="G49" s="3">
-        <v>30445100</v>
+        <v>32450500</v>
       </c>
       <c r="H49" s="3">
-        <v>27810500</v>
+        <v>29642300</v>
       </c>
       <c r="I49" s="3">
-        <v>24608700</v>
+        <v>26229600</v>
       </c>
       <c r="J49" s="3">
-        <v>23199300</v>
+        <v>24727300</v>
       </c>
       <c r="K49" s="3">
         <v>23846400</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4297100</v>
+        <v>4580200</v>
       </c>
       <c r="E52" s="3">
-        <v>3915400</v>
+        <v>4173300</v>
       </c>
       <c r="F52" s="3">
-        <v>4270500</v>
+        <v>4551800</v>
       </c>
       <c r="G52" s="3">
-        <v>2272900</v>
+        <v>2422600</v>
       </c>
       <c r="H52" s="3">
-        <v>2351700</v>
+        <v>2506600</v>
       </c>
       <c r="I52" s="3">
-        <v>1844500</v>
+        <v>1966000</v>
       </c>
       <c r="J52" s="3">
-        <v>2302800</v>
+        <v>2454500</v>
       </c>
       <c r="K52" s="3">
         <v>2236600</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71921700</v>
+        <v>76659000</v>
       </c>
       <c r="E54" s="3">
-        <v>67821000</v>
+        <v>72288200</v>
       </c>
       <c r="F54" s="3">
-        <v>68872000</v>
+        <v>73408400</v>
       </c>
       <c r="G54" s="3">
-        <v>62624900</v>
+        <v>66749900</v>
       </c>
       <c r="H54" s="3">
-        <v>58040300</v>
+        <v>61863300</v>
       </c>
       <c r="I54" s="3">
-        <v>53300400</v>
+        <v>56811100</v>
       </c>
       <c r="J54" s="3">
-        <v>50510300</v>
+        <v>53837300</v>
       </c>
       <c r="K54" s="3">
         <v>50690300</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10199100</v>
+        <v>10870900</v>
       </c>
       <c r="E57" s="3">
-        <v>26166900</v>
+        <v>27890400</v>
       </c>
       <c r="F57" s="3">
-        <v>24019400</v>
+        <v>25601500</v>
       </c>
       <c r="G57" s="3">
-        <v>9534300</v>
+        <v>10162300</v>
       </c>
       <c r="H57" s="3">
-        <v>9206900</v>
+        <v>9813300</v>
       </c>
       <c r="I57" s="3">
-        <v>8474400</v>
+        <v>9032600</v>
       </c>
       <c r="J57" s="3">
-        <v>7763100</v>
+        <v>8274400</v>
       </c>
       <c r="K57" s="3">
         <v>7778200</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4938600</v>
+        <v>5263900</v>
       </c>
       <c r="E58" s="3">
-        <v>7713100</v>
+        <v>8221200</v>
       </c>
       <c r="F58" s="3">
-        <v>17848900</v>
+        <v>19024600</v>
       </c>
       <c r="G58" s="3">
-        <v>5854200</v>
+        <v>6239800</v>
       </c>
       <c r="H58" s="3">
-        <v>4863100</v>
+        <v>5183500</v>
       </c>
       <c r="I58" s="3">
-        <v>5581200</v>
+        <v>5948800</v>
       </c>
       <c r="J58" s="3">
-        <v>3930900</v>
+        <v>4189800</v>
       </c>
       <c r="K58" s="3">
         <v>2916300</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8143700</v>
+        <v>8680100</v>
       </c>
       <c r="E59" s="3">
-        <v>8536600</v>
+        <v>9098900</v>
       </c>
       <c r="F59" s="3">
-        <v>8051600</v>
+        <v>8581900</v>
       </c>
       <c r="G59" s="3">
-        <v>7424600</v>
+        <v>7913600</v>
       </c>
       <c r="H59" s="3">
-        <v>8147000</v>
+        <v>8683700</v>
       </c>
       <c r="I59" s="3">
-        <v>7743100</v>
+        <v>8253100</v>
       </c>
       <c r="J59" s="3">
-        <v>7596600</v>
+        <v>8097000</v>
       </c>
       <c r="K59" s="3">
         <v>6670400</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23281400</v>
+        <v>24814900</v>
       </c>
       <c r="E60" s="3">
-        <v>22362500</v>
+        <v>23835400</v>
       </c>
       <c r="F60" s="3">
-        <v>26176900</v>
+        <v>27901100</v>
       </c>
       <c r="G60" s="3">
-        <v>22813000</v>
+        <v>24315700</v>
       </c>
       <c r="H60" s="3">
-        <v>22217100</v>
+        <v>23680500</v>
       </c>
       <c r="I60" s="3">
-        <v>21798700</v>
+        <v>23234500</v>
       </c>
       <c r="J60" s="3">
-        <v>19290500</v>
+        <v>20561200</v>
       </c>
       <c r="K60" s="3">
         <v>17364900</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25918300</v>
+        <v>27625400</v>
       </c>
       <c r="E61" s="3">
-        <v>25357800</v>
+        <v>27028100</v>
       </c>
       <c r="F61" s="3">
-        <v>20019700</v>
+        <v>21338300</v>
       </c>
       <c r="G61" s="3">
-        <v>12357600</v>
+        <v>13171600</v>
       </c>
       <c r="H61" s="3">
-        <v>10707400</v>
+        <v>11412600</v>
       </c>
       <c r="I61" s="3">
-        <v>7685400</v>
+        <v>8191600</v>
       </c>
       <c r="J61" s="3">
-        <v>8202500</v>
+        <v>8742800</v>
       </c>
       <c r="K61" s="3">
         <v>8306400</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7311400</v>
+        <v>7792900</v>
       </c>
       <c r="E62" s="3">
-        <v>7037200</v>
+        <v>7500800</v>
       </c>
       <c r="F62" s="3">
-        <v>8067100</v>
+        <v>8598500</v>
       </c>
       <c r="G62" s="3">
-        <v>8609800</v>
+        <v>9176900</v>
       </c>
       <c r="H62" s="3">
-        <v>7268100</v>
+        <v>7746800</v>
       </c>
       <c r="I62" s="3">
-        <v>7987200</v>
+        <v>8513300</v>
       </c>
       <c r="J62" s="3">
-        <v>6575600</v>
+        <v>7008700</v>
       </c>
       <c r="K62" s="3">
         <v>7762900</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57281200</v>
+        <v>61054200</v>
       </c>
       <c r="E66" s="3">
-        <v>55172600</v>
+        <v>58806700</v>
       </c>
       <c r="F66" s="3">
-        <v>53956300</v>
+        <v>57510200</v>
       </c>
       <c r="G66" s="3">
-        <v>44475200</v>
+        <v>47404700</v>
       </c>
       <c r="H66" s="3">
-        <v>40906100</v>
+        <v>43600500</v>
       </c>
       <c r="I66" s="3">
-        <v>38150500</v>
+        <v>40663400</v>
       </c>
       <c r="J66" s="3">
-        <v>34591400</v>
+        <v>36869800</v>
       </c>
       <c r="K66" s="3">
         <v>34045700</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20077400</v>
+        <v>21399800</v>
       </c>
       <c r="E72" s="3">
-        <v>11912600</v>
+        <v>12697200</v>
       </c>
       <c r="F72" s="3">
-        <v>29150000</v>
+        <v>31070100</v>
       </c>
       <c r="G72" s="3">
-        <v>25759600</v>
+        <v>27456300</v>
       </c>
       <c r="H72" s="3">
-        <v>24936100</v>
+        <v>26578600</v>
       </c>
       <c r="I72" s="3">
-        <v>22651000</v>
+        <v>24143000</v>
       </c>
       <c r="J72" s="3">
-        <v>22750900</v>
+        <v>24249500</v>
       </c>
       <c r="K72" s="3">
         <v>15959400</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14640500</v>
+        <v>15604800</v>
       </c>
       <c r="E76" s="3">
-        <v>12648400</v>
+        <v>13481500</v>
       </c>
       <c r="F76" s="3">
-        <v>14915700</v>
+        <v>15898200</v>
       </c>
       <c r="G76" s="3">
-        <v>18149700</v>
+        <v>19345100</v>
       </c>
       <c r="H76" s="3">
-        <v>17134200</v>
+        <v>18262800</v>
       </c>
       <c r="I76" s="3">
-        <v>15149900</v>
+        <v>16147800</v>
       </c>
       <c r="J76" s="3">
-        <v>15919000</v>
+        <v>16967500</v>
       </c>
       <c r="K76" s="3">
         <v>16644600</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6230300</v>
+        <v>6653800</v>
       </c>
       <c r="E81" s="3">
-        <v>10377100</v>
+        <v>11082600</v>
       </c>
       <c r="F81" s="3">
-        <v>6671100</v>
+        <v>7124600</v>
       </c>
       <c r="G81" s="3">
-        <v>5741800</v>
+        <v>6132200</v>
       </c>
       <c r="H81" s="3">
-        <v>5437200</v>
+        <v>5806900</v>
       </c>
       <c r="I81" s="3">
-        <v>5727400</v>
+        <v>6116800</v>
       </c>
       <c r="J81" s="3">
-        <v>5363000</v>
+        <v>5727600</v>
       </c>
       <c r="K81" s="3">
         <v>4796100</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2195300</v>
+        <v>2344500</v>
       </c>
       <c r="E83" s="3">
-        <v>2454400</v>
+        <v>2621300</v>
       </c>
       <c r="F83" s="3">
-        <v>2242900</v>
+        <v>2395400</v>
       </c>
       <c r="G83" s="3">
-        <v>1621500</v>
+        <v>1731800</v>
       </c>
       <c r="H83" s="3">
-        <v>1517400</v>
+        <v>1620600</v>
       </c>
       <c r="I83" s="3">
-        <v>1586100</v>
+        <v>1693900</v>
       </c>
       <c r="J83" s="3">
-        <v>1274800</v>
+        <v>1361500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8981500</v>
+        <v>9592100</v>
       </c>
       <c r="E89" s="3">
-        <v>8105400</v>
+        <v>8656500</v>
       </c>
       <c r="F89" s="3">
-        <v>8726800</v>
+        <v>9320100</v>
       </c>
       <c r="G89" s="3">
-        <v>7805300</v>
+        <v>8335900</v>
       </c>
       <c r="H89" s="3">
-        <v>8118700</v>
+        <v>8670700</v>
       </c>
       <c r="I89" s="3">
-        <v>6139400</v>
+        <v>6556800</v>
       </c>
       <c r="J89" s="3">
-        <v>6971200</v>
+        <v>7445200</v>
       </c>
       <c r="K89" s="3">
         <v>7505900</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1457600</v>
+        <v>-1556700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1472000</v>
+        <v>-1572100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1671400</v>
+        <v>-1785000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1998100</v>
+        <v>-2134000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2067900</v>
+        <v>-2208500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2096700</v>
+        <v>-2239200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1983700</v>
+        <v>-2118600</v>
       </c>
       <c r="K91" s="3">
         <v>-2168600</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2477700</v>
+        <v>-2646100</v>
       </c>
       <c r="E94" s="3">
-        <v>5143700</v>
+        <v>5493400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6511600</v>
+        <v>-6954300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3531000</v>
+        <v>-3771100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3919800</v>
+        <v>-4186300</v>
       </c>
       <c r="I94" s="3">
-        <v>-377700</v>
+        <v>-403400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1285900</v>
+        <v>-1373300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4661900</v>
+        <v>-4978800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4503500</v>
+        <v>-4809700</v>
       </c>
       <c r="F96" s="3">
-        <v>-4337400</v>
+        <v>-4632200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3997300</v>
+        <v>-4269100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3689400</v>
+        <v>-3940200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3532100</v>
+        <v>-3772300</v>
       </c>
       <c r="J96" s="3">
-        <v>-3315000</v>
+        <v>-3540400</v>
       </c>
       <c r="K96" s="3">
         <v>-2963500</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5169200</v>
+        <v>-5520600</v>
       </c>
       <c r="E100" s="3">
-        <v>-13416400</v>
+        <v>-14328500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2237400</v>
+        <v>-2389500</v>
       </c>
       <c r="G100" s="3">
-        <v>-3403700</v>
+        <v>-3635100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3358200</v>
+        <v>-3586600</v>
       </c>
       <c r="I100" s="3">
-        <v>-5748400</v>
+        <v>-6139300</v>
       </c>
       <c r="J100" s="3">
-        <v>-5970000</v>
+        <v>-6375800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-198300</v>
+        <v>-211700</v>
       </c>
       <c r="E101" s="3">
-        <v>79700</v>
+        <v>85200</v>
       </c>
       <c r="F101" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="G101" s="3">
-        <v>314600</v>
+        <v>335900</v>
       </c>
       <c r="H101" s="3">
-        <v>-599200</v>
+        <v>-639900</v>
       </c>
       <c r="I101" s="3">
-        <v>-161700</v>
+        <v>-172700</v>
       </c>
       <c r="J101" s="3">
-        <v>93000</v>
+        <v>99400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1136400</v>
+        <v>1213700</v>
       </c>
       <c r="E102" s="3">
-        <v>-87500</v>
+        <v>-93400</v>
       </c>
       <c r="F102" s="3">
-        <v>-32100</v>
+        <v>-34300</v>
       </c>
       <c r="G102" s="3">
-        <v>1185100</v>
+        <v>1265700</v>
       </c>
       <c r="H102" s="3">
-        <v>241500</v>
+        <v>257900</v>
       </c>
       <c r="I102" s="3">
-        <v>-148400</v>
+        <v>-158500</v>
       </c>
       <c r="J102" s="3">
-        <v>-191600</v>
+        <v>-204600</v>
       </c>
       <c r="K102" s="3">
         <v>-835600</v>
